--- a/data/outputs/OR/62.xlsx
+++ b/data/outputs/OR/62.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ181"/>
+  <dimension ref="A1:BR181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>3866320</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1333,6 +1344,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1548,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1622,7 +1635,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Raviv, Tal/0000-0002-5960-2386; Raviv, Tal/0000-0002-5960-2386; </t>
+          <t>Raviv, Tal/0000-0002-5960-2386; Raviv, Tal/0000-0002-5960-2386;</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1747,6 +1760,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>2960003</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +1976,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>3766914</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2161,6 +2184,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2388,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4805412</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2577,6 +2606,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2776,6 +2806,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2979,6 +3010,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3186,6 +3218,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3397,6 +3430,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>9904245</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3608,6 +3646,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3819,6 +3858,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>2104670</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4026,6 +4070,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4237,6 +4282,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3027519</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4432,6 +4482,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>3939437</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4623,6 +4678,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4826,6 +4882,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4912,7 +4969,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Zachariadis, Emmanouil E/0000-0001-8323-2023; </t>
+          <t>Zachariadis, Emmanouil E/0000-0001-8323-2023;</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -5037,6 +5094,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5244,6 +5302,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>3893336</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5447,6 +5510,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>51451850</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5654,6 +5722,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>2086913</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5855,6 +5928,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4130472</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6072,6 +6150,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6283,6 +6362,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6494,6 +6574,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6691,6 +6772,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6912,6 +6994,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7129,6 +7212,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4788347</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7340,6 +7428,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7543,6 +7632,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7746,6 +7836,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7957,6 +8048,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8160,6 +8252,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3881809</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8367,6 +8464,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>3919892</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8566,6 +8668,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8777,6 +8880,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8988,6 +9092,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4445423</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9191,6 +9300,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3999492</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9402,6 +9516,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9603,6 +9718,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3851647</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9814,6 +9934,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10015,6 +10136,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10226,6 +10348,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4193388</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10437,6 +10564,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>2916194</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10654,6 +10786,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10863,6 +10996,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4535238</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11080,6 +11218,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11287,6 +11426,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4094771</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11498,6 +11642,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11711,6 +11856,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11922,6 +12068,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12008,7 +12155,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Lam, William H.K./0000-0002-7625-3712; </t>
+          <t>Lam, William H.K./0000-0002-7625-3712;</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -12133,6 +12280,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12336,6 +12484,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12543,6 +12692,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12768,6 +12918,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4417315</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12981,6 +13136,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>1402997</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13192,6 +13352,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13387,6 +13548,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13598,6 +13760,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13815,6 +13978,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14028,6 +14192,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14239,6 +14404,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14438,6 +14604,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14653,6 +14820,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>12141913</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14860,6 +15032,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15067,6 +15240,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15274,6 +15448,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4817447</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15485,6 +15664,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15698,6 +15878,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>3764195</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15911,6 +16096,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16140,6 +16326,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16335,6 +16522,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16542,6 +16730,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16753,6 +16942,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16962,6 +17152,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17165,6 +17356,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>4009364</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17376,6 +17572,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17579,6 +17776,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17808,6 +18006,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18017,6 +18216,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4602994</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18228,6 +18432,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18435,6 +18640,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>19832916</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18630,6 +18840,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18841,6 +19052,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>4512484</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19052,6 +19268,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19255,6 +19472,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19466,6 +19684,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19681,6 +19900,11 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>3943362</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19880,6 +20104,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>3705854</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20083,6 +20312,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>3070108</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20288,6 +20522,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20374,7 +20609,7 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Liu, Wei/0000-0001-8638-3695; </t>
+          <t>Liu, Wei/0000-0001-8638-3695;</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
@@ -20505,6 +20740,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20714,6 +20950,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20925,6 +21162,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21136,6 +21374,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21347,6 +21586,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21550,6 +21790,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21753,6 +21994,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>2916203</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21966,6 +22212,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22171,6 +22418,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22388,6 +22636,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22605,6 +22854,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22816,6 +23066,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4654484</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23027,6 +23282,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23230,6 +23486,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23441,6 +23698,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23652,6 +23910,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>3842595</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23847,6 +24110,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>4612034</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24050,6 +24318,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>3881842</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24283,6 +24556,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24496,6 +24770,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24695,6 +24970,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24906,6 +25182,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25109,6 +25386,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25320,6 +25598,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25527,6 +25806,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25736,6 +26016,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25941,6 +26222,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>4593579</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26146,6 +26432,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26355,6 +26642,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26558,6 +26846,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26757,6 +27046,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>4816721</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26960,6 +27254,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27167,6 +27462,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27370,6 +27666,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>3968743</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27569,6 +27870,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27780,6 +28082,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27991,6 +28294,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28190,6 +28494,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28407,6 +28712,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>4418412</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28624,6 +28934,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28841,6 +29152,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29036,6 +29348,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29243,6 +29556,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29454,6 +29768,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>9909539</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29665,6 +29984,11 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>3881840</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29868,6 +30192,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>4329170</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30083,6 +30412,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>4036211</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30286,6 +30620,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30481,6 +30816,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30692,6 +31028,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30903,6 +31240,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31098,6 +31436,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31309,6 +31648,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>4803634</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31520,6 +31864,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31606,7 +31951,7 @@
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>Chikaraishi, Makoto/0000-0002-8053-9473; </t>
+          <t>Chikaraishi, Makoto/0000-0002-8053-9473;</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -31729,6 +32074,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31942,6 +32288,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32151,6 +32498,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32362,6 +32710,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32565,6 +32914,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32768,6 +33118,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32979,6 +33330,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33065,7 +33417,7 @@
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>Bhat, Chandra/0000-0002-0715-8121; </t>
+          <t>Bhat, Chandra/0000-0002-0715-8121;</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
@@ -33192,6 +33544,11 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr">
+        <is>
+          <t>4593589</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33405,6 +33762,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33616,6 +33974,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33819,6 +34178,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -33905,7 +34265,7 @@
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>Nie, Yu/0000-0003-2083-470X; </t>
+          <t>Nie, Yu/0000-0003-2083-470X;</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
@@ -34040,6 +34400,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34249,6 +34610,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34444,6 +34806,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34647,6 +35010,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34858,6 +35222,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35069,6 +35434,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35280,6 +35646,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35489,6 +35856,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35684,6 +36052,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35883,6 +36252,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36096,6 +36466,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36309,6 +36680,11 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr">
+        <is>
+          <t>4593593</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36526,6 +36902,11 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr">
+        <is>
+          <t>10267896</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36729,6 +37110,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36932,6 +37314,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37018,7 +37401,7 @@
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>Shu, Chi-Wang/0000-0001-7720-9564; Shu, Chi-Wang/0000-0001-7720-9564; </t>
+          <t>Shu, Chi-Wang/0000-0001-7720-9564; Shu, Chi-Wang/0000-0001-7720-9564;</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr">
@@ -37143,6 +37526,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37350,6 +37734,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37553,6 +37938,11 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr">
+        <is>
+          <t>2917727</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37734,6 +38124,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -37915,6 +38306,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38124,6 +38516,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
